--- a/resources/Tabelle.xlsx
+++ b/resources/Tabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgpf/Library/Mobile Documents/com~apple~CloudDocs/CODE/42_intelligenza_artificiale/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C321285-FA6B-BD45-A6E3-64F676971EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56918151-1D4D-5D41-BEA5-CC6DD4C277FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1680" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{D8C8E1ED-A79C-0A45-AEA0-9A338FDAB316}"/>
+    <workbookView xWindow="680" yWindow="2560" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{D8C8E1ED-A79C-0A45-AEA0-9A338FDAB316}"/>
   </bookViews>
   <sheets>
     <sheet name="TAB 01" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>PARTICOLARI CATEGORIE DI AI</t>
   </si>
@@ -611,7 +611,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -629,12 +651,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -659,13 +675,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -677,21 +687,11 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,63 +1022,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="11" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="18"/>
     </row>
     <row r="3" spans="1:4" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
     </row>
     <row r="5" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="120" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="12">
         <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1086,11 +1086,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="171" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1113,10 +1113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD8CE77-1B1E-7B4C-9505-7D3BA3A29F21}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,45 +1128,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="27"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="12">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="12">
         <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1174,31 +1174,31 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="28"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="12">
         <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -1206,25 +1206,25 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
+      <c r="A8" s="4">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
+      <c r="A9" s="4">
         <v>11</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="12">
         <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1232,233 +1232,269 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="12">
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="28"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="28"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
+      <c r="A12" s="4">
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="28"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
+      <c r="A13" s="4">
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="103" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
+      <c r="A14" s="4">
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+    <row r="15" spans="1:4" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="16" spans="1:4" s="10" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="30"/>
+    </row>
+    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>16</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="2" t="s">
+      <c r="C18" s="8"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="2" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="2" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="2" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="2" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="2" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="2" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
+      <c r="C25" s="9"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>17</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
+      <c r="C26" s="9"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
+      <c r="C27" s="9"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>22</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
+      <c r="C28" s="9"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
+      <c r="C29" s="9"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
+      <c r="C30" s="9"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>50</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B31" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="21"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
+      <c r="C31" s="9"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" ht="69" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>51</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
+      <c r="C32" s="9"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>61</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
+      <c r="C33" s="9"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4" ht="86" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>62</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="21"/>
-      <c r="D31" s="3"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="C9:C13"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="A18:A25"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>